--- a/transformation-tables/3_multi-hazard-threat-schema.xlsx
+++ b/transformation-tables/3_multi-hazard-threat-schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-23790" yWindow="1215" windowWidth="51195" windowHeight="18240" activeTab="1"/>
+    <workbookView xWindow="-23790" yWindow="1215" windowWidth="51195" windowHeight="18240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mh-intensity-Sauid" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4791" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4790" uniqueCount="1152">
   <si>
     <t>Context</t>
   </si>
@@ -2707,9 +2707,6 @@
     <t>8.1.2.1 Building Function</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen]  ,Then [BldgNumT]</t>
-  </si>
-  <si>
     <t>BldgNumT_Fit</t>
   </si>
   <si>
@@ -2719,9 +2716,6 @@
     <t>8.1.2.1.1</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [Res_LD]</t>
-  </si>
-  <si>
     <t>Res_LD_Fit</t>
   </si>
   <si>
@@ -2731,9 +2725,6 @@
     <t>8.1.2.1.2</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [Res_MD]</t>
-  </si>
-  <si>
     <t>Res_MD_Fit</t>
   </si>
   <si>
@@ -2743,9 +2734,6 @@
     <t>8.1.2.1.3</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [Res_HD]</t>
-  </si>
-  <si>
     <t>Res_HD_Fit</t>
   </si>
   <si>
@@ -2755,9 +2743,6 @@
     <t>8.1.2.1.4</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [Comm]</t>
-  </si>
-  <si>
     <t>Comm_Fit</t>
   </si>
   <si>
@@ -2767,9 +2752,6 @@
     <t>8.1.2.1.5</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [Ind]</t>
-  </si>
-  <si>
     <t>Ind_Fit</t>
   </si>
   <si>
@@ -2779,9 +2761,6 @@
     <t>8.1.2.1.6</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen]  ,Then [Civic]</t>
-  </si>
-  <si>
     <t>Civic_Fit</t>
   </si>
   <si>
@@ -2791,9 +2770,6 @@
     <t>8.1.2.1.7</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [Agr]</t>
-  </si>
-  <si>
     <t>Agr_Fit</t>
   </si>
   <si>
@@ -2806,9 +2782,6 @@
     <t>8.1.2.2.1</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen]  ,Then [Wood]</t>
-  </si>
-  <si>
     <t>Wood_Fit</t>
   </si>
   <si>
@@ -2818,9 +2791,6 @@
     <t>8.1.2.2.2</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [Concrete]</t>
-  </si>
-  <si>
     <t>Concrete_Fit</t>
   </si>
   <si>
@@ -2830,9 +2800,6 @@
     <t>8.1.2.2.3</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [PreCast]</t>
-  </si>
-  <si>
     <t>PreCast_Fit</t>
   </si>
   <si>
@@ -2842,9 +2809,6 @@
     <t>8.1.2.2.4</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [RMasonry]</t>
-  </si>
-  <si>
     <t>RMasonry_Fit</t>
   </si>
   <si>
@@ -2854,9 +2818,6 @@
     <t>8.1.2.2.5</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [URMasonry]</t>
-  </si>
-  <si>
     <t>URMasonry_Fit</t>
   </si>
   <si>
@@ -2866,9 +2827,6 @@
     <t>8.1.2.2.6</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [Steel]</t>
-  </si>
-  <si>
     <t>Steel_Fit</t>
   </si>
   <si>
@@ -2878,9 +2836,6 @@
     <t>8.1.2.2.7</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen]  ,Then [Manufactured]</t>
-  </si>
-  <si>
     <t>Manufactured_Fit</t>
   </si>
   <si>
@@ -2890,9 +2845,6 @@
     <t>8.1.2.2.8</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen]  ,Then [PreCode]</t>
-  </si>
-  <si>
     <t>PreCode_Fit</t>
   </si>
   <si>
@@ -2902,9 +2854,6 @@
     <t>8.1.2.2.9</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [LowCode]</t>
-  </si>
-  <si>
     <t>LowCode_Fit</t>
   </si>
   <si>
@@ -2914,9 +2863,6 @@
     <t>8.1.2.2.10</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [ModCode]</t>
-  </si>
-  <si>
     <t>ModCode_Fit</t>
   </si>
   <si>
@@ -2926,9 +2872,6 @@
     <t>8.1.2.2.11</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [HiCode]</t>
-  </si>
-  <si>
     <t>HiCode_Fit</t>
   </si>
   <si>
@@ -2938,9 +2881,6 @@
     <t>8.1.2.3 People</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [CensusPop]</t>
-  </si>
-  <si>
     <t>CensusPop_Fit</t>
   </si>
   <si>
@@ -2950,9 +2890,6 @@
     <t>8.1.2.3.1</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen]  Then [DayPopT]</t>
-  </si>
-  <si>
     <t>DayPopT_Fit</t>
   </si>
   <si>
@@ -2962,9 +2899,6 @@
     <t>8.1.2.3.2</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [NightPopT]</t>
-  </si>
-  <si>
     <t>NightPopT_TFit</t>
   </si>
   <si>
@@ -2974,9 +2908,6 @@
     <t>8.1.2.3.3</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [TransitPopT]</t>
-  </si>
-  <si>
     <t>TransitPopT_Fit</t>
   </si>
   <si>
@@ -2986,9 +2917,6 @@
     <t>8.1.2.3.4</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [CensusDU]</t>
-  </si>
-  <si>
     <t>CensusDU_Fit</t>
   </si>
   <si>
@@ -2998,9 +2926,6 @@
     <t>8.1.2.3.5</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [SF_Hshlds]</t>
-  </si>
-  <si>
     <t>SF_Hshlds_Fit</t>
   </si>
   <si>
@@ -3010,9 +2935,6 @@
     <t>8.1.2.3.6</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [MF_Hshlds]</t>
-  </si>
-  <si>
     <t>MF_Hshlds_Fit</t>
   </si>
   <si>
@@ -3025,9 +2947,6 @@
     <t>8.1.2.4.1</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] Then [AssetCostT]</t>
-  </si>
-  <si>
     <t>AssetCostT_Fit</t>
   </si>
   <si>
@@ -3037,9 +2956,6 @@
     <t>8.1.2.4.2</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen]  ,Then [BldgCostT]</t>
-  </si>
-  <si>
     <t>BldgCostT_Fit</t>
   </si>
   <si>
@@ -3049,9 +2965,6 @@
     <t>8.1.2.4.3</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [StrCostT]</t>
-  </si>
-  <si>
     <t>StrCostT_Fit</t>
   </si>
   <si>
@@ -3061,18 +2974,12 @@
     <t>8.1.2.4.4</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [NStrCostT]</t>
-  </si>
-  <si>
     <t>NStrCostT_Fit</t>
   </si>
   <si>
     <t>Nonstructural building susceptible to wildfire threat</t>
   </si>
   <si>
-    <t>IF [Fire] &gt;= [Firen] ,Then [ContCostT]</t>
-  </si>
-  <si>
     <t>ContCostT_Fit</t>
   </si>
   <si>
@@ -3506,6 +3413,108 @@
   </si>
   <si>
     <t>4.1.2.2 Building Construction</t>
+  </si>
+  <si>
+    <t>6.1.2.1 Building Function</t>
+  </si>
+  <si>
+    <t>Firet</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet]  ,Then [BldgNumT]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [Res_MD]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [Res_LD]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [Res_HD]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [Comm]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [Ind]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet]  ,Then [Civic]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [Agr]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet]  ,Then [Wood]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [Concrete]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [PreCast]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [RMasonry]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [URMasonry]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [Steel]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet]  ,Then [Manufactured]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet]  ,Then [PreCode]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [LowCode]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [ModCode]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [HiCode]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [CensusPop]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet]  Then [DayPopT]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [NightPopT]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [TransitPopT]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [CensusDU]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [SF_Hshlds]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [MF_Hshlds]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] Then [AssetCostT]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet]  ,Then [BldgCostT]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [StrCostT]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [NStrCostT]</t>
+  </si>
+  <si>
+    <t>IF [Fire] &gt;= [Firet] ,Then [ContCostT]</t>
+  </si>
+  <si>
+    <t>3.1.2 Multi-Hazard Threat</t>
   </si>
 </sst>
 </file>
@@ -3970,7 +3979,7 @@
   </sheetPr>
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -5111,8 +5120,8 @@
   </sheetPr>
   <dimension ref="A1:K1091"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5210,7 +5219,7 @@
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
-        <v>155</v>
+        <v>1151</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="6"/>
@@ -5275,7 +5284,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>1147</v>
+        <v>1116</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>28</v>
@@ -7219,7 +7228,7 @@
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7" t="s">
-        <v>1148</v>
+        <v>1117</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -9423,9 +9432,7 @@
       <c r="H176" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I176" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="I176" s="6"/>
       <c r="J176" s="6" t="s">
         <v>23</v>
       </c>
@@ -9637,7 +9644,7 @@
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7" t="s">
-        <v>617</v>
+        <v>1118</v>
       </c>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
@@ -12185,7 +12192,7 @@
         <v>17</v>
       </c>
       <c r="I287" s="6" t="s">
-        <v>123</v>
+        <v>1119</v>
       </c>
       <c r="J287" s="6" t="s">
         <v>23</v>
@@ -12274,16 +12281,16 @@
       </c>
       <c r="G291" s="6"/>
       <c r="H291" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I291" s="6" t="s">
         <v>882</v>
-      </c>
-      <c r="I291" s="6" t="s">
-        <v>883</v>
       </c>
       <c r="J291" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K291" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="292" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12291,7 +12298,7 @@
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
       <c r="D292" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E292" s="6" t="s">
         <v>157</v>
@@ -12301,16 +12308,16 @@
       </c>
       <c r="G292" s="6"/>
       <c r="H292" s="8" t="s">
-        <v>886</v>
+        <v>1122</v>
       </c>
       <c r="I292" s="6" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="J292" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K292" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="293" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12318,7 +12325,7 @@
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
       <c r="D293" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E293" s="6" t="s">
         <v>157</v>
@@ -12328,16 +12335,16 @@
       </c>
       <c r="G293" s="6"/>
       <c r="H293" s="8" t="s">
-        <v>890</v>
+        <v>1121</v>
       </c>
       <c r="I293" s="6" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="J293" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K293" s="6" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="294" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12345,7 +12352,7 @@
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
       <c r="D294" s="6" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E294" s="6" t="s">
         <v>157</v>
@@ -12355,16 +12362,16 @@
       </c>
       <c r="G294" s="6"/>
       <c r="H294" s="8" t="s">
-        <v>894</v>
+        <v>1123</v>
       </c>
       <c r="I294" s="6" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="J294" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K294" s="6" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="295" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12372,7 +12379,7 @@
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
       <c r="D295" s="6" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E295" s="6" t="s">
         <v>157</v>
@@ -12382,16 +12389,16 @@
       </c>
       <c r="G295" s="6"/>
       <c r="H295" s="8" t="s">
-        <v>898</v>
+        <v>1124</v>
       </c>
       <c r="I295" s="6" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="J295" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K295" s="6" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="296" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12399,7 +12406,7 @@
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
       <c r="D296" s="6" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="E296" s="6" t="s">
         <v>157</v>
@@ -12409,16 +12416,16 @@
       </c>
       <c r="G296" s="6"/>
       <c r="H296" s="8" t="s">
-        <v>902</v>
+        <v>1125</v>
       </c>
       <c r="I296" s="6" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J296" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K296" s="6" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="297" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12426,7 +12433,7 @@
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
       <c r="D297" s="6" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="E297" s="6" t="s">
         <v>157</v>
@@ -12436,16 +12443,16 @@
       </c>
       <c r="G297" s="6"/>
       <c r="H297" s="8" t="s">
-        <v>906</v>
+        <v>1126</v>
       </c>
       <c r="I297" s="6" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="J297" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K297" s="6" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
     </row>
     <row r="298" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12453,7 +12460,7 @@
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
       <c r="D298" s="6" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="E298" s="6" t="s">
         <v>157</v>
@@ -12463,23 +12470,23 @@
       </c>
       <c r="G298" s="6"/>
       <c r="H298" s="8" t="s">
-        <v>910</v>
+        <v>1127</v>
       </c>
       <c r="I298" s="6" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="J298" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K298" s="6" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
     </row>
     <row r="299" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="C299" s="7" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
@@ -12553,16 +12560,16 @@
       </c>
       <c r="G302" s="6"/>
       <c r="H302" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I302" s="6" t="s">
         <v>882</v>
-      </c>
-      <c r="I302" s="6" t="s">
-        <v>883</v>
       </c>
       <c r="J302" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K302" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="303" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12570,7 +12577,7 @@
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
       <c r="D303" s="6" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="E303" s="6" t="s">
         <v>157</v>
@@ -12580,16 +12587,16 @@
       </c>
       <c r="G303" s="6"/>
       <c r="H303" s="8" t="s">
-        <v>915</v>
+        <v>1128</v>
       </c>
       <c r="I303" s="6" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="J303" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K303" s="6" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="304" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12597,7 +12604,7 @@
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
       <c r="D304" s="6" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="E304" s="6" t="s">
         <v>157</v>
@@ -12607,16 +12614,16 @@
       </c>
       <c r="G304" s="6"/>
       <c r="H304" s="8" t="s">
-        <v>919</v>
+        <v>1129</v>
       </c>
       <c r="I304" s="6" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="J304" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K304" s="6" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="305" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12624,7 +12631,7 @@
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
       <c r="D305" s="6" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="E305" s="6" t="s">
         <v>157</v>
@@ -12634,16 +12641,16 @@
       </c>
       <c r="G305" s="6"/>
       <c r="H305" s="8" t="s">
-        <v>923</v>
+        <v>1130</v>
       </c>
       <c r="I305" s="6" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="J305" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K305" s="6" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
     </row>
     <row r="306" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12651,7 +12658,7 @@
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
       <c r="D306" s="6" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="E306" s="6" t="s">
         <v>157</v>
@@ -12661,16 +12668,16 @@
       </c>
       <c r="G306" s="6"/>
       <c r="H306" s="8" t="s">
-        <v>927</v>
+        <v>1131</v>
       </c>
       <c r="I306" s="6" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="J306" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K306" s="6" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
     </row>
     <row r="307" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12678,7 +12685,7 @@
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
       <c r="D307" s="6" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="E307" s="6" t="s">
         <v>157</v>
@@ -12688,16 +12695,16 @@
       </c>
       <c r="G307" s="6"/>
       <c r="H307" s="8" t="s">
-        <v>931</v>
+        <v>1132</v>
       </c>
       <c r="I307" s="6" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="J307" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K307" s="6" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
     </row>
     <row r="308" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12705,7 +12712,7 @@
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
       <c r="D308" s="6" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="E308" s="6" t="s">
         <v>157</v>
@@ -12715,16 +12722,16 @@
       </c>
       <c r="G308" s="6"/>
       <c r="H308" s="8" t="s">
-        <v>935</v>
+        <v>1133</v>
       </c>
       <c r="I308" s="6" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="J308" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K308" s="6" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
     </row>
     <row r="309" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12732,7 +12739,7 @@
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
       <c r="D309" s="6" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="E309" s="6" t="s">
         <v>157</v>
@@ -12742,16 +12749,16 @@
       </c>
       <c r="G309" s="6"/>
       <c r="H309" s="8" t="s">
-        <v>939</v>
+        <v>1134</v>
       </c>
       <c r="I309" s="6" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="J309" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K309" s="6" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
     </row>
     <row r="310" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12759,7 +12766,7 @@
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
       <c r="D310" s="6" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="E310" s="6" t="s">
         <v>157</v>
@@ -12769,16 +12776,16 @@
       </c>
       <c r="G310" s="6"/>
       <c r="H310" s="8" t="s">
-        <v>943</v>
+        <v>1135</v>
       </c>
       <c r="I310" s="6" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="J310" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K310" s="6" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
     </row>
     <row r="311" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12786,7 +12793,7 @@
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
       <c r="D311" s="6" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="E311" s="6" t="s">
         <v>157</v>
@@ -12796,16 +12803,16 @@
       </c>
       <c r="G311" s="6"/>
       <c r="H311" s="8" t="s">
-        <v>947</v>
+        <v>1136</v>
       </c>
       <c r="I311" s="6" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="J311" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K311" s="6" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
     </row>
     <row r="312" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12813,7 +12820,7 @@
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
       <c r="D312" s="6" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
       <c r="E312" s="6" t="s">
         <v>157</v>
@@ -12823,16 +12830,16 @@
       </c>
       <c r="G312" s="6"/>
       <c r="H312" s="8" t="s">
-        <v>951</v>
+        <v>1137</v>
       </c>
       <c r="I312" s="6" t="s">
-        <v>952</v>
+        <v>934</v>
       </c>
       <c r="J312" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K312" s="6" t="s">
-        <v>953</v>
+        <v>935</v>
       </c>
     </row>
     <row r="313" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12840,7 +12847,7 @@
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
       <c r="D313" s="6" t="s">
-        <v>954</v>
+        <v>936</v>
       </c>
       <c r="E313" s="6" t="s">
         <v>157</v>
@@ -12850,23 +12857,23 @@
       </c>
       <c r="G313" s="6"/>
       <c r="H313" s="8" t="s">
-        <v>955</v>
+        <v>1138</v>
       </c>
       <c r="I313" s="6" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="J313" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K313" s="6" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
     </row>
     <row r="314" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="C314" s="7" t="s">
-        <v>958</v>
+        <v>939</v>
       </c>
       <c r="D314" s="6"/>
       <c r="E314" s="6"/>
@@ -12940,16 +12947,16 @@
       </c>
       <c r="G317" s="6"/>
       <c r="H317" s="8" t="s">
-        <v>959</v>
+        <v>1139</v>
       </c>
       <c r="I317" s="6" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="J317" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K317" s="6" t="s">
-        <v>961</v>
+        <v>941</v>
       </c>
     </row>
     <row r="318" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12957,7 +12964,7 @@
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
       <c r="D318" s="6" t="s">
-        <v>962</v>
+        <v>942</v>
       </c>
       <c r="E318" s="6" t="s">
         <v>157</v>
@@ -12967,16 +12974,16 @@
       </c>
       <c r="G318" s="6"/>
       <c r="H318" s="8" t="s">
-        <v>963</v>
+        <v>1140</v>
       </c>
       <c r="I318" s="6" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
       <c r="J318" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K318" s="6" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
     </row>
     <row r="319" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -12984,7 +12991,7 @@
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
       <c r="D319" s="6" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
       <c r="E319" s="6" t="s">
         <v>157</v>
@@ -12994,16 +13001,16 @@
       </c>
       <c r="G319" s="6"/>
       <c r="H319" s="8" t="s">
-        <v>967</v>
+        <v>1141</v>
       </c>
       <c r="I319" s="6" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="J319" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K319" s="6" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
     </row>
     <row r="320" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13011,7 +13018,7 @@
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
       <c r="D320" s="6" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
       <c r="E320" s="6" t="s">
         <v>157</v>
@@ -13021,16 +13028,16 @@
       </c>
       <c r="G320" s="6"/>
       <c r="H320" s="8" t="s">
-        <v>971</v>
+        <v>1142</v>
       </c>
       <c r="I320" s="6" t="s">
-        <v>972</v>
+        <v>949</v>
       </c>
       <c r="J320" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K320" s="6" t="s">
-        <v>973</v>
+        <v>950</v>
       </c>
     </row>
     <row r="321" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13038,7 +13045,7 @@
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
       <c r="D321" s="6" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
       <c r="E321" s="6" t="s">
         <v>157</v>
@@ -13048,16 +13055,16 @@
       </c>
       <c r="G321" s="6"/>
       <c r="H321" s="8" t="s">
-        <v>975</v>
+        <v>1143</v>
       </c>
       <c r="I321" s="6" t="s">
-        <v>976</v>
+        <v>952</v>
       </c>
       <c r="J321" s="6" t="s">
         <v>276</v>
       </c>
       <c r="K321" s="6" t="s">
-        <v>977</v>
+        <v>953</v>
       </c>
     </row>
     <row r="322" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13065,7 +13072,7 @@
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
       <c r="D322" s="6" t="s">
-        <v>978</v>
+        <v>954</v>
       </c>
       <c r="E322" s="6" t="s">
         <v>157</v>
@@ -13075,16 +13082,16 @@
       </c>
       <c r="G322" s="6"/>
       <c r="H322" s="8" t="s">
-        <v>979</v>
+        <v>1144</v>
       </c>
       <c r="I322" s="6" t="s">
-        <v>980</v>
+        <v>955</v>
       </c>
       <c r="J322" s="6" t="s">
         <v>276</v>
       </c>
       <c r="K322" s="6" t="s">
-        <v>981</v>
+        <v>956</v>
       </c>
     </row>
     <row r="323" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13092,7 +13099,7 @@
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
       <c r="D323" s="6" t="s">
-        <v>982</v>
+        <v>957</v>
       </c>
       <c r="E323" s="6" t="s">
         <v>157</v>
@@ -13102,23 +13109,23 @@
       </c>
       <c r="G323" s="6"/>
       <c r="H323" s="8" t="s">
-        <v>983</v>
+        <v>1145</v>
       </c>
       <c r="I323" s="6" t="s">
-        <v>984</v>
+        <v>958</v>
       </c>
       <c r="J323" s="6" t="s">
         <v>276</v>
       </c>
       <c r="K323" s="6" t="s">
-        <v>985</v>
+        <v>959</v>
       </c>
     </row>
     <row r="324" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="C324" s="7" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
@@ -13184,7 +13191,7 @@
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
       <c r="D327" s="6" t="s">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="E327" s="6" t="s">
         <v>157</v>
@@ -13194,16 +13201,16 @@
       </c>
       <c r="G327" s="6"/>
       <c r="H327" s="8" t="s">
-        <v>988</v>
+        <v>1146</v>
       </c>
       <c r="I327" s="6" t="s">
-        <v>989</v>
+        <v>962</v>
       </c>
       <c r="J327" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K327" s="6" t="s">
-        <v>990</v>
+        <v>963</v>
       </c>
     </row>
     <row r="328" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13211,7 +13218,7 @@
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
       <c r="D328" s="6" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="E328" s="6" t="s">
         <v>157</v>
@@ -13221,16 +13228,16 @@
       </c>
       <c r="G328" s="6"/>
       <c r="H328" s="8" t="s">
-        <v>992</v>
+        <v>1147</v>
       </c>
       <c r="I328" s="6" t="s">
-        <v>993</v>
+        <v>965</v>
       </c>
       <c r="J328" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K328" s="6" t="s">
-        <v>994</v>
+        <v>966</v>
       </c>
     </row>
     <row r="329" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13238,7 +13245,7 @@
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
       <c r="D329" s="6" t="s">
-        <v>995</v>
+        <v>967</v>
       </c>
       <c r="E329" s="6" t="s">
         <v>157</v>
@@ -13248,16 +13255,16 @@
       </c>
       <c r="G329" s="6"/>
       <c r="H329" s="8" t="s">
-        <v>996</v>
+        <v>1148</v>
       </c>
       <c r="I329" s="6" t="s">
-        <v>997</v>
+        <v>968</v>
       </c>
       <c r="J329" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K329" s="6" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
     </row>
     <row r="330" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13265,7 +13272,7 @@
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
       <c r="D330" s="6" t="s">
-        <v>999</v>
+        <v>970</v>
       </c>
       <c r="E330" s="6" t="s">
         <v>157</v>
@@ -13275,16 +13282,16 @@
       </c>
       <c r="G330" s="6"/>
       <c r="H330" s="8" t="s">
-        <v>1000</v>
+        <v>1149</v>
       </c>
       <c r="I330" s="6" t="s">
-        <v>1001</v>
+        <v>971</v>
       </c>
       <c r="J330" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K330" s="6" t="s">
-        <v>1002</v>
+        <v>972</v>
       </c>
     </row>
     <row r="331" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13298,22 +13305,22 @@
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
       <c r="H331" s="8" t="s">
-        <v>1003</v>
+        <v>1150</v>
       </c>
       <c r="I331" s="6" t="s">
-        <v>1004</v>
+        <v>973</v>
       </c>
       <c r="J331" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K331" s="6" t="s">
-        <v>1005</v>
+        <v>974</v>
       </c>
     </row>
     <row r="332" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="7"/>
       <c r="B332" s="7" t="s">
-        <v>1006</v>
+        <v>975</v>
       </c>
       <c r="C332" s="7"/>
       <c r="D332" s="6"/>
@@ -13329,7 +13336,7 @@
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7" t="s">
-        <v>1007</v>
+        <v>976</v>
       </c>
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
@@ -13395,7 +13402,7 @@
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
       <c r="D336" s="6" t="s">
-        <v>1008</v>
+        <v>977</v>
       </c>
       <c r="E336" s="6" t="s">
         <v>329</v>
@@ -13422,7 +13429,7 @@
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
       <c r="D337" s="6" t="s">
-        <v>1009</v>
+        <v>978</v>
       </c>
       <c r="E337" s="6" t="s">
         <v>329</v>
@@ -13449,7 +13456,7 @@
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
       <c r="D338" s="6" t="s">
-        <v>1010</v>
+        <v>979</v>
       </c>
       <c r="E338" s="6" t="s">
         <v>329</v>
@@ -13476,7 +13483,7 @@
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
       <c r="D339" s="6" t="s">
-        <v>1011</v>
+        <v>980</v>
       </c>
       <c r="E339" s="6" t="s">
         <v>329</v>
@@ -13503,7 +13510,7 @@
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
       <c r="D340" s="6" t="s">
-        <v>1012</v>
+        <v>981</v>
       </c>
       <c r="E340" s="6" t="s">
         <v>329</v>
@@ -13530,7 +13537,7 @@
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
       <c r="D341" s="6" t="s">
-        <v>1013</v>
+        <v>982</v>
       </c>
       <c r="E341" s="6" t="s">
         <v>329</v>
@@ -13557,7 +13564,7 @@
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
       <c r="D342" s="6" t="s">
-        <v>1014</v>
+        <v>983</v>
       </c>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
@@ -13568,13 +13575,13 @@
         <v>17</v>
       </c>
       <c r="I342" s="6" t="s">
-        <v>1015</v>
+        <v>984</v>
       </c>
       <c r="J342" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K342" s="6" t="s">
-        <v>1016</v>
+        <v>985</v>
       </c>
     </row>
     <row r="343" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13582,7 +13589,7 @@
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
       <c r="D343" s="6" t="s">
-        <v>1017</v>
+        <v>986</v>
       </c>
       <c r="E343" s="6" t="s">
         <v>329</v>
@@ -13609,7 +13616,7 @@
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
       <c r="D344" s="6" t="s">
-        <v>1018</v>
+        <v>987</v>
       </c>
       <c r="E344" s="6" t="s">
         <v>329</v>
@@ -13634,7 +13641,7 @@
     <row r="345" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="7"/>
       <c r="B345" s="7" t="s">
-        <v>1019</v>
+        <v>988</v>
       </c>
       <c r="C345" s="7"/>
       <c r="D345" s="6"/>
@@ -13650,7 +13657,7 @@
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7" t="s">
-        <v>1020</v>
+        <v>989</v>
       </c>
       <c r="D346" s="6"/>
       <c r="E346" s="6" t="s">
@@ -13711,16 +13718,16 @@
       </c>
       <c r="G348" s="6"/>
       <c r="H348" s="8" t="s">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="I348" s="6" t="s">
-        <v>1022</v>
+        <v>991</v>
       </c>
       <c r="J348" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K348" s="6" t="s">
-        <v>1023</v>
+        <v>992</v>
       </c>
     </row>
     <row r="349" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13728,7 +13735,7 @@
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
       <c r="D349" s="6" t="s">
-        <v>1024</v>
+        <v>993</v>
       </c>
       <c r="E349" s="6" t="s">
         <v>157</v>
@@ -13738,16 +13745,16 @@
       </c>
       <c r="G349" s="6"/>
       <c r="H349" s="8" t="s">
-        <v>1025</v>
+        <v>994</v>
       </c>
       <c r="I349" s="6" t="s">
-        <v>1026</v>
+        <v>995</v>
       </c>
       <c r="J349" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K349" s="6" t="s">
-        <v>1027</v>
+        <v>996</v>
       </c>
     </row>
     <row r="350" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13755,7 +13762,7 @@
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
       <c r="D350" s="6" t="s">
-        <v>1028</v>
+        <v>997</v>
       </c>
       <c r="E350" s="6" t="s">
         <v>157</v>
@@ -13765,16 +13772,16 @@
       </c>
       <c r="G350" s="6"/>
       <c r="H350" s="8" t="s">
-        <v>1029</v>
+        <v>998</v>
       </c>
       <c r="I350" s="6" t="s">
-        <v>1030</v>
+        <v>999</v>
       </c>
       <c r="J350" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K350" s="6" t="s">
-        <v>1031</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="351" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13782,7 +13789,7 @@
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
       <c r="D351" s="6" t="s">
-        <v>1032</v>
+        <v>1001</v>
       </c>
       <c r="E351" s="6" t="s">
         <v>157</v>
@@ -13792,16 +13799,16 @@
       </c>
       <c r="G351" s="6"/>
       <c r="H351" s="8" t="s">
-        <v>1033</v>
+        <v>1002</v>
       </c>
       <c r="I351" s="6" t="s">
-        <v>1034</v>
+        <v>1003</v>
       </c>
       <c r="J351" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K351" s="6" t="s">
-        <v>1035</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="352" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13809,7 +13816,7 @@
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
       <c r="D352" s="6" t="s">
-        <v>1036</v>
+        <v>1005</v>
       </c>
       <c r="E352" s="6" t="s">
         <v>157</v>
@@ -13819,16 +13826,16 @@
       </c>
       <c r="G352" s="6"/>
       <c r="H352" s="8" t="s">
-        <v>1037</v>
+        <v>1006</v>
       </c>
       <c r="I352" s="6" t="s">
-        <v>1038</v>
+        <v>1007</v>
       </c>
       <c r="J352" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K352" s="6" t="s">
-        <v>1039</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="353" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13836,7 +13843,7 @@
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
       <c r="D353" s="6" t="s">
-        <v>1040</v>
+        <v>1009</v>
       </c>
       <c r="E353" s="6" t="s">
         <v>157</v>
@@ -13846,16 +13853,16 @@
       </c>
       <c r="G353" s="6"/>
       <c r="H353" s="8" t="s">
-        <v>1041</v>
+        <v>1010</v>
       </c>
       <c r="I353" s="6" t="s">
-        <v>1042</v>
+        <v>1011</v>
       </c>
       <c r="J353" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K353" s="6" t="s">
-        <v>1043</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="354" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13863,7 +13870,7 @@
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
       <c r="D354" s="6" t="s">
-        <v>1044</v>
+        <v>1013</v>
       </c>
       <c r="E354" s="6" t="s">
         <v>157</v>
@@ -13873,16 +13880,16 @@
       </c>
       <c r="G354" s="6"/>
       <c r="H354" s="8" t="s">
-        <v>1045</v>
+        <v>1014</v>
       </c>
       <c r="I354" s="6" t="s">
-        <v>1046</v>
+        <v>1015</v>
       </c>
       <c r="J354" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K354" s="6" t="s">
-        <v>1047</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="355" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -13890,7 +13897,7 @@
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
       <c r="D355" s="6" t="s">
-        <v>1048</v>
+        <v>1017</v>
       </c>
       <c r="E355" s="6" t="s">
         <v>157</v>
@@ -13900,23 +13907,23 @@
       </c>
       <c r="G355" s="6"/>
       <c r="H355" s="8" t="s">
-        <v>1049</v>
+        <v>1018</v>
       </c>
       <c r="I355" s="6" t="s">
-        <v>1050</v>
+        <v>1019</v>
       </c>
       <c r="J355" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K355" s="6" t="s">
-        <v>1051</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="356" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="7"/>
       <c r="B356" s="7"/>
       <c r="C356" s="7" t="s">
-        <v>1052</v>
+        <v>1021</v>
       </c>
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
@@ -13990,16 +13997,16 @@
       </c>
       <c r="G359" s="6"/>
       <c r="H359" s="8" t="s">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="I359" s="6" t="s">
-        <v>1022</v>
+        <v>991</v>
       </c>
       <c r="J359" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K359" s="6" t="s">
-        <v>1023</v>
+        <v>992</v>
       </c>
     </row>
     <row r="360" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14007,7 +14014,7 @@
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
       <c r="D360" s="6" t="s">
-        <v>1053</v>
+        <v>1022</v>
       </c>
       <c r="E360" s="6" t="s">
         <v>157</v>
@@ -14017,16 +14024,16 @@
       </c>
       <c r="G360" s="6"/>
       <c r="H360" s="8" t="s">
-        <v>1054</v>
+        <v>1023</v>
       </c>
       <c r="I360" s="6" t="s">
-        <v>1055</v>
+        <v>1024</v>
       </c>
       <c r="J360" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K360" s="6" t="s">
-        <v>1056</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="361" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14034,7 +14041,7 @@
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="6" t="s">
-        <v>1057</v>
+        <v>1026</v>
       </c>
       <c r="E361" s="6" t="s">
         <v>157</v>
@@ -14044,16 +14051,16 @@
       </c>
       <c r="G361" s="6"/>
       <c r="H361" s="8" t="s">
-        <v>1058</v>
+        <v>1027</v>
       </c>
       <c r="I361" s="6" t="s">
-        <v>1059</v>
+        <v>1028</v>
       </c>
       <c r="J361" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K361" s="6" t="s">
-        <v>1060</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="362" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14061,7 +14068,7 @@
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
       <c r="D362" s="6" t="s">
-        <v>1061</v>
+        <v>1030</v>
       </c>
       <c r="E362" s="6" t="s">
         <v>157</v>
@@ -14071,16 +14078,16 @@
       </c>
       <c r="G362" s="6"/>
       <c r="H362" s="8" t="s">
-        <v>1062</v>
+        <v>1031</v>
       </c>
       <c r="I362" s="6" t="s">
-        <v>1063</v>
+        <v>1032</v>
       </c>
       <c r="J362" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K362" s="6" t="s">
-        <v>1064</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="363" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14088,7 +14095,7 @@
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
       <c r="D363" s="6" t="s">
-        <v>1065</v>
+        <v>1034</v>
       </c>
       <c r="E363" s="6" t="s">
         <v>157</v>
@@ -14098,16 +14105,16 @@
       </c>
       <c r="G363" s="6"/>
       <c r="H363" s="8" t="s">
-        <v>1066</v>
+        <v>1035</v>
       </c>
       <c r="I363" s="6" t="s">
-        <v>1067</v>
+        <v>1036</v>
       </c>
       <c r="J363" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K363" s="6" t="s">
-        <v>1068</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="364" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14115,7 +14122,7 @@
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
       <c r="D364" s="6" t="s">
-        <v>1069</v>
+        <v>1038</v>
       </c>
       <c r="E364" s="6" t="s">
         <v>157</v>
@@ -14125,16 +14132,16 @@
       </c>
       <c r="G364" s="6"/>
       <c r="H364" s="8" t="s">
-        <v>1070</v>
+        <v>1039</v>
       </c>
       <c r="I364" s="6" t="s">
-        <v>1071</v>
+        <v>1040</v>
       </c>
       <c r="J364" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K364" s="6" t="s">
-        <v>1072</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="365" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14142,7 +14149,7 @@
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
       <c r="D365" s="6" t="s">
-        <v>1073</v>
+        <v>1042</v>
       </c>
       <c r="E365" s="6" t="s">
         <v>157</v>
@@ -14152,16 +14159,16 @@
       </c>
       <c r="G365" s="6"/>
       <c r="H365" s="8" t="s">
-        <v>1074</v>
+        <v>1043</v>
       </c>
       <c r="I365" s="6" t="s">
-        <v>1075</v>
+        <v>1044</v>
       </c>
       <c r="J365" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K365" s="6" t="s">
-        <v>1076</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="366" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14169,7 +14176,7 @@
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
       <c r="D366" s="6" t="s">
-        <v>1077</v>
+        <v>1046</v>
       </c>
       <c r="E366" s="6" t="s">
         <v>157</v>
@@ -14179,16 +14186,16 @@
       </c>
       <c r="G366" s="6"/>
       <c r="H366" s="8" t="s">
-        <v>1078</v>
+        <v>1047</v>
       </c>
       <c r="I366" s="6" t="s">
-        <v>1079</v>
+        <v>1048</v>
       </c>
       <c r="J366" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K366" s="6" t="s">
-        <v>1080</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="367" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14196,7 +14203,7 @@
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
       <c r="D367" s="6" t="s">
-        <v>1081</v>
+        <v>1050</v>
       </c>
       <c r="E367" s="6" t="s">
         <v>157</v>
@@ -14206,16 +14213,16 @@
       </c>
       <c r="G367" s="6"/>
       <c r="H367" s="8" t="s">
-        <v>1082</v>
+        <v>1051</v>
       </c>
       <c r="I367" s="6" t="s">
-        <v>1083</v>
+        <v>1052</v>
       </c>
       <c r="J367" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K367" s="6" t="s">
-        <v>1084</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="368" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14223,7 +14230,7 @@
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
       <c r="D368" s="6" t="s">
-        <v>1085</v>
+        <v>1054</v>
       </c>
       <c r="E368" s="6" t="s">
         <v>157</v>
@@ -14233,16 +14240,16 @@
       </c>
       <c r="G368" s="6"/>
       <c r="H368" s="8" t="s">
-        <v>1086</v>
+        <v>1055</v>
       </c>
       <c r="I368" s="6" t="s">
-        <v>1087</v>
+        <v>1056</v>
       </c>
       <c r="J368" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K368" s="6" t="s">
-        <v>1088</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="369" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14250,7 +14257,7 @@
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
       <c r="D369" s="6" t="s">
-        <v>1089</v>
+        <v>1058</v>
       </c>
       <c r="E369" s="6" t="s">
         <v>157</v>
@@ -14260,16 +14267,16 @@
       </c>
       <c r="G369" s="6"/>
       <c r="H369" s="8" t="s">
-        <v>1090</v>
+        <v>1059</v>
       </c>
       <c r="I369" s="6" t="s">
-        <v>1091</v>
+        <v>1060</v>
       </c>
       <c r="J369" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K369" s="6" t="s">
-        <v>1092</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="370" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14277,7 +14284,7 @@
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
       <c r="D370" s="6" t="s">
-        <v>1093</v>
+        <v>1062</v>
       </c>
       <c r="E370" s="6" t="s">
         <v>157</v>
@@ -14287,23 +14294,23 @@
       </c>
       <c r="G370" s="6"/>
       <c r="H370" s="8" t="s">
-        <v>1094</v>
+        <v>1063</v>
       </c>
       <c r="I370" s="6" t="s">
-        <v>1095</v>
+        <v>1064</v>
       </c>
       <c r="J370" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K370" s="6" t="s">
-        <v>1096</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="371" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="7"/>
       <c r="B371" s="7"/>
       <c r="C371" s="7" t="s">
-        <v>1097</v>
+        <v>1066</v>
       </c>
       <c r="D371" s="6"/>
       <c r="E371" s="6"/>
@@ -14377,16 +14384,16 @@
       </c>
       <c r="G374" s="6"/>
       <c r="H374" s="8" t="s">
-        <v>1098</v>
+        <v>1067</v>
       </c>
       <c r="I374" s="6" t="s">
-        <v>1099</v>
+        <v>1068</v>
       </c>
       <c r="J374" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K374" s="6" t="s">
-        <v>1100</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="375" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14394,7 +14401,7 @@
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
       <c r="D375" s="6" t="s">
-        <v>1101</v>
+        <v>1070</v>
       </c>
       <c r="E375" s="6" t="s">
         <v>157</v>
@@ -14404,16 +14411,16 @@
       </c>
       <c r="G375" s="6"/>
       <c r="H375" s="8" t="s">
-        <v>1102</v>
+        <v>1071</v>
       </c>
       <c r="I375" s="6" t="s">
-        <v>1103</v>
+        <v>1072</v>
       </c>
       <c r="J375" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K375" s="6" t="s">
-        <v>1104</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="376" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14421,7 +14428,7 @@
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
       <c r="D376" s="6" t="s">
-        <v>1105</v>
+        <v>1074</v>
       </c>
       <c r="E376" s="6" t="s">
         <v>157</v>
@@ -14431,16 +14438,16 @@
       </c>
       <c r="G376" s="6"/>
       <c r="H376" s="8" t="s">
-        <v>1106</v>
+        <v>1075</v>
       </c>
       <c r="I376" s="6" t="s">
-        <v>1107</v>
+        <v>1076</v>
       </c>
       <c r="J376" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K376" s="6" t="s">
-        <v>1108</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="377" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14448,7 +14455,7 @@
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
       <c r="D377" s="6" t="s">
-        <v>1109</v>
+        <v>1078</v>
       </c>
       <c r="E377" s="6" t="s">
         <v>157</v>
@@ -14458,16 +14465,16 @@
       </c>
       <c r="G377" s="6"/>
       <c r="H377" s="8" t="s">
-        <v>1110</v>
+        <v>1079</v>
       </c>
       <c r="I377" s="6" t="s">
-        <v>1111</v>
+        <v>1080</v>
       </c>
       <c r="J377" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K377" s="6" t="s">
-        <v>1112</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="378" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14475,7 +14482,7 @@
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
       <c r="D378" s="6" t="s">
-        <v>1113</v>
+        <v>1082</v>
       </c>
       <c r="E378" s="6" t="s">
         <v>157</v>
@@ -14485,16 +14492,16 @@
       </c>
       <c r="G378" s="6"/>
       <c r="H378" s="8" t="s">
-        <v>1114</v>
+        <v>1083</v>
       </c>
       <c r="I378" s="6" t="s">
-        <v>1115</v>
+        <v>1084</v>
       </c>
       <c r="J378" s="6" t="s">
         <v>276</v>
       </c>
       <c r="K378" s="6" t="s">
-        <v>1116</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="379" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14502,7 +14509,7 @@
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
       <c r="D379" s="6" t="s">
-        <v>1117</v>
+        <v>1086</v>
       </c>
       <c r="E379" s="6" t="s">
         <v>157</v>
@@ -14512,16 +14519,16 @@
       </c>
       <c r="G379" s="6"/>
       <c r="H379" s="8" t="s">
-        <v>1118</v>
+        <v>1087</v>
       </c>
       <c r="I379" s="6" t="s">
-        <v>1119</v>
+        <v>1088</v>
       </c>
       <c r="J379" s="6" t="s">
         <v>276</v>
       </c>
       <c r="K379" s="6" t="s">
-        <v>1120</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="380" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14529,7 +14536,7 @@
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
       <c r="D380" s="6" t="s">
-        <v>1121</v>
+        <v>1090</v>
       </c>
       <c r="E380" s="6" t="s">
         <v>157</v>
@@ -14539,23 +14546,23 @@
       </c>
       <c r="G380" s="6"/>
       <c r="H380" s="8" t="s">
-        <v>1122</v>
+        <v>1091</v>
       </c>
       <c r="I380" s="6" t="s">
-        <v>1123</v>
+        <v>1092</v>
       </c>
       <c r="J380" s="6" t="s">
         <v>276</v>
       </c>
       <c r="K380" s="6" t="s">
-        <v>1124</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="381" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="7"/>
       <c r="B381" s="7"/>
       <c r="C381" s="7" t="s">
-        <v>1146</v>
+        <v>1115</v>
       </c>
       <c r="D381" s="6"/>
       <c r="E381" s="6"/>
@@ -14621,7 +14628,7 @@
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
       <c r="D384" s="6" t="s">
-        <v>1126</v>
+        <v>1095</v>
       </c>
       <c r="E384" s="6" t="s">
         <v>157</v>
@@ -14631,16 +14638,16 @@
       </c>
       <c r="G384" s="6"/>
       <c r="H384" s="8" t="s">
-        <v>1127</v>
+        <v>1096</v>
       </c>
       <c r="I384" s="6" t="s">
-        <v>1128</v>
+        <v>1097</v>
       </c>
       <c r="J384" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K384" s="6" t="s">
-        <v>1129</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="385" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14648,7 +14655,7 @@
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
       <c r="D385" s="6" t="s">
-        <v>1130</v>
+        <v>1099</v>
       </c>
       <c r="E385" s="6" t="s">
         <v>157</v>
@@ -14658,16 +14665,16 @@
       </c>
       <c r="G385" s="6"/>
       <c r="H385" s="8" t="s">
-        <v>1131</v>
+        <v>1100</v>
       </c>
       <c r="I385" s="6" t="s">
-        <v>1132</v>
+        <v>1101</v>
       </c>
       <c r="J385" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K385" s="6" t="s">
-        <v>1133</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="386" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14675,7 +14682,7 @@
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
       <c r="D386" s="6" t="s">
-        <v>1134</v>
+        <v>1103</v>
       </c>
       <c r="E386" s="6" t="s">
         <v>157</v>
@@ -14685,16 +14692,16 @@
       </c>
       <c r="G386" s="6"/>
       <c r="H386" s="8" t="s">
-        <v>1135</v>
+        <v>1104</v>
       </c>
       <c r="I386" s="6" t="s">
-        <v>1136</v>
+        <v>1105</v>
       </c>
       <c r="J386" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K386" s="6" t="s">
-        <v>1137</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="387" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14702,7 +14709,7 @@
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
       <c r="D387" s="6" t="s">
-        <v>1138</v>
+        <v>1107</v>
       </c>
       <c r="E387" s="6" t="s">
         <v>157</v>
@@ -14712,16 +14719,16 @@
       </c>
       <c r="G387" s="6"/>
       <c r="H387" s="8" t="s">
-        <v>1139</v>
+        <v>1108</v>
       </c>
       <c r="I387" s="6" t="s">
-        <v>1140</v>
+        <v>1109</v>
       </c>
       <c r="J387" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K387" s="6" t="s">
-        <v>1141</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="388" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -14729,22 +14736,22 @@
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
       <c r="D388" s="6" t="s">
-        <v>1142</v>
+        <v>1111</v>
       </c>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
       <c r="G388" s="6"/>
       <c r="H388" s="8" t="s">
-        <v>1143</v>
+        <v>1112</v>
       </c>
       <c r="I388" s="6" t="s">
-        <v>1144</v>
+        <v>1113</v>
       </c>
       <c r="J388" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K388" s="6" t="s">
-        <v>1145</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="389" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -16871,8 +16878,8 @@
   </sheetPr>
   <dimension ref="A1:K1089"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23996,20 +24003,20 @@
         <v>157</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G289" s="6"/>
       <c r="H289" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I289" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J289" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K289" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="290" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24017,26 +24024,26 @@
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
       <c r="D290" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="E290" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F290" s="6" t="s">
         <v>885</v>
-      </c>
-      <c r="E290" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F290" s="6" t="s">
-        <v>887</v>
       </c>
       <c r="G290" s="6"/>
       <c r="H290" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I290" s="6" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="J290" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K290" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="291" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24044,26 +24051,26 @@
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
       <c r="D291" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E291" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G291" s="6"/>
       <c r="H291" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I291" s="6" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="J291" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K291" s="6" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="292" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24071,26 +24078,26 @@
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
       <c r="D292" s="6" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E292" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="G292" s="6"/>
       <c r="H292" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I292" s="6" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="J292" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K292" s="6" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="293" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24098,26 +24105,26 @@
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
       <c r="D293" s="6" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E293" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="G293" s="6"/>
       <c r="H293" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I293" s="6" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="J293" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K293" s="6" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="294" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24125,26 +24132,26 @@
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
       <c r="D294" s="6" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="E294" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="G294" s="6"/>
       <c r="H294" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I294" s="6" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J294" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K294" s="6" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="295" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24152,26 +24159,26 @@
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
       <c r="D295" s="6" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="E295" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="G295" s="6"/>
       <c r="H295" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I295" s="6" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="J295" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K295" s="6" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
     </row>
     <row r="296" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24179,33 +24186,33 @@
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
       <c r="D296" s="6" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="E296" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="G296" s="6"/>
       <c r="H296" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I296" s="6" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="J296" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K296" s="6" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
     </row>
     <row r="297" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="C297" s="7" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
@@ -24275,20 +24282,20 @@
         <v>157</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G300" s="6"/>
       <c r="H300" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I300" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J300" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K300" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="301" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24296,26 +24303,26 @@
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
       <c r="D301" s="6" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="E301" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="G301" s="6"/>
       <c r="H301" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I301" s="6" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="J301" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K301" s="6" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="302" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24323,26 +24330,26 @@
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
       <c r="D302" s="6" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="E302" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="G302" s="6"/>
       <c r="H302" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I302" s="6" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="J302" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K302" s="6" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="303" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24350,26 +24357,26 @@
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
       <c r="D303" s="6" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="E303" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="G303" s="6"/>
       <c r="H303" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I303" s="6" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="J303" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K303" s="6" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
     </row>
     <row r="304" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24377,26 +24384,26 @@
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
       <c r="D304" s="6" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="E304" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="G304" s="6"/>
       <c r="H304" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I304" s="6" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="J304" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K304" s="6" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
     </row>
     <row r="305" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24404,26 +24411,26 @@
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
       <c r="D305" s="6" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="E305" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F305" s="6" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="G305" s="6"/>
       <c r="H305" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I305" s="6" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="J305" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K305" s="6" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
     </row>
     <row r="306" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24431,26 +24438,26 @@
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
       <c r="D306" s="6" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="E306" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F306" s="6" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="G306" s="6"/>
       <c r="H306" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I306" s="6" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="J306" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K306" s="6" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
     </row>
     <row r="307" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24458,26 +24465,26 @@
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
       <c r="D307" s="6" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="E307" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F307" s="6" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="G307" s="6"/>
       <c r="H307" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I307" s="6" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="J307" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K307" s="6" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
     </row>
     <row r="308" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24485,26 +24492,26 @@
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
       <c r="D308" s="6" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="E308" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F308" s="6" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="G308" s="6"/>
       <c r="H308" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I308" s="6" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="J308" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K308" s="6" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
     </row>
     <row r="309" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24512,26 +24519,26 @@
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
       <c r="D309" s="6" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="E309" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F309" s="6" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="G309" s="6"/>
       <c r="H309" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I309" s="6" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="J309" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K309" s="6" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
     </row>
     <row r="310" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24539,26 +24546,26 @@
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
       <c r="D310" s="6" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
       <c r="E310" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F310" s="6" t="s">
-        <v>952</v>
+        <v>934</v>
       </c>
       <c r="G310" s="6"/>
       <c r="H310" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I310" s="6" t="s">
-        <v>952</v>
+        <v>934</v>
       </c>
       <c r="J310" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K310" s="6" t="s">
-        <v>953</v>
+        <v>935</v>
       </c>
     </row>
     <row r="311" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24566,33 +24573,33 @@
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
       <c r="D311" s="6" t="s">
-        <v>954</v>
+        <v>936</v>
       </c>
       <c r="E311" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F311" s="6" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="G311" s="6"/>
       <c r="H311" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I311" s="6" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="J311" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K311" s="6" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
     </row>
     <row r="312" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7" t="s">
-        <v>958</v>
+        <v>939</v>
       </c>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
@@ -24662,20 +24669,20 @@
         <v>157</v>
       </c>
       <c r="F315" s="6" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="G315" s="6"/>
       <c r="H315" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I315" s="6" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="J315" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K315" s="6" t="s">
-        <v>961</v>
+        <v>941</v>
       </c>
     </row>
     <row r="316" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24683,26 +24690,26 @@
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
       <c r="D316" s="6" t="s">
-        <v>962</v>
+        <v>942</v>
       </c>
       <c r="E316" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F316" s="6" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
       <c r="G316" s="6"/>
       <c r="H316" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I316" s="6" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
       <c r="J316" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K316" s="6" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
     </row>
     <row r="317" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24710,26 +24717,26 @@
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
       <c r="D317" s="6" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
       <c r="E317" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F317" s="6" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="G317" s="6"/>
       <c r="H317" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I317" s="6" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="J317" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K317" s="6" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
     </row>
     <row r="318" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24737,26 +24744,26 @@
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
       <c r="D318" s="6" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
       <c r="E318" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F318" s="6" t="s">
-        <v>972</v>
+        <v>949</v>
       </c>
       <c r="G318" s="6"/>
       <c r="H318" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I318" s="6" t="s">
-        <v>972</v>
+        <v>949</v>
       </c>
       <c r="J318" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K318" s="6" t="s">
-        <v>973</v>
+        <v>950</v>
       </c>
     </row>
     <row r="319" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24764,26 +24771,26 @@
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
       <c r="D319" s="6" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
       <c r="E319" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F319" s="6" t="s">
-        <v>976</v>
+        <v>952</v>
       </c>
       <c r="G319" s="6"/>
       <c r="H319" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I319" s="6" t="s">
-        <v>976</v>
+        <v>952</v>
       </c>
       <c r="J319" s="6" t="s">
         <v>276</v>
       </c>
       <c r="K319" s="6" t="s">
-        <v>977</v>
+        <v>953</v>
       </c>
     </row>
     <row r="320" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24791,26 +24798,26 @@
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
       <c r="D320" s="6" t="s">
-        <v>978</v>
+        <v>954</v>
       </c>
       <c r="E320" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F320" s="6" t="s">
-        <v>980</v>
+        <v>955</v>
       </c>
       <c r="G320" s="6"/>
       <c r="H320" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I320" s="6" t="s">
-        <v>980</v>
+        <v>955</v>
       </c>
       <c r="J320" s="6" t="s">
         <v>276</v>
       </c>
       <c r="K320" s="6" t="s">
-        <v>981</v>
+        <v>956</v>
       </c>
     </row>
     <row r="321" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24818,33 +24825,33 @@
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
       <c r="D321" s="6" t="s">
-        <v>982</v>
+        <v>957</v>
       </c>
       <c r="E321" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F321" s="6" t="s">
-        <v>984</v>
+        <v>958</v>
       </c>
       <c r="G321" s="6"/>
       <c r="H321" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I321" s="6" t="s">
-        <v>984</v>
+        <v>958</v>
       </c>
       <c r="J321" s="6" t="s">
         <v>276</v>
       </c>
       <c r="K321" s="6" t="s">
-        <v>985</v>
+        <v>959</v>
       </c>
     </row>
     <row r="322" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="C322" s="7" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
@@ -24910,26 +24917,26 @@
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
       <c r="D325" s="6" t="s">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="E325" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F325" s="6" t="s">
-        <v>989</v>
+        <v>962</v>
       </c>
       <c r="G325" s="6"/>
       <c r="H325" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I325" s="6" t="s">
-        <v>989</v>
+        <v>962</v>
       </c>
       <c r="J325" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K325" s="6" t="s">
-        <v>990</v>
+        <v>963</v>
       </c>
     </row>
     <row r="326" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24937,26 +24944,26 @@
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
       <c r="D326" s="6" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="E326" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F326" s="6" t="s">
-        <v>993</v>
+        <v>965</v>
       </c>
       <c r="G326" s="6"/>
       <c r="H326" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I326" s="6" t="s">
-        <v>993</v>
+        <v>965</v>
       </c>
       <c r="J326" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K326" s="6" t="s">
-        <v>994</v>
+        <v>966</v>
       </c>
     </row>
     <row r="327" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24964,26 +24971,26 @@
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
       <c r="D327" s="6" t="s">
-        <v>995</v>
+        <v>967</v>
       </c>
       <c r="E327" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F327" s="6" t="s">
-        <v>997</v>
+        <v>968</v>
       </c>
       <c r="G327" s="6"/>
       <c r="H327" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I327" s="6" t="s">
-        <v>997</v>
+        <v>968</v>
       </c>
       <c r="J327" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K327" s="6" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
     </row>
     <row r="328" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -24991,26 +24998,26 @@
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
       <c r="D328" s="6" t="s">
-        <v>999</v>
+        <v>970</v>
       </c>
       <c r="E328" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F328" s="6" t="s">
-        <v>1001</v>
+        <v>971</v>
       </c>
       <c r="G328" s="6"/>
       <c r="H328" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I328" s="6" t="s">
-        <v>1001</v>
+        <v>971</v>
       </c>
       <c r="J328" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K328" s="6" t="s">
-        <v>1002</v>
+        <v>972</v>
       </c>
     </row>
     <row r="329" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25022,26 +25029,26 @@
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6" t="s">
-        <v>1004</v>
+        <v>973</v>
       </c>
       <c r="G329" s="6"/>
       <c r="H329" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I329" s="6" t="s">
-        <v>1004</v>
+        <v>973</v>
       </c>
       <c r="J329" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K329" s="6" t="s">
-        <v>1005</v>
+        <v>974</v>
       </c>
     </row>
     <row r="330" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="7"/>
       <c r="B330" s="7" t="s">
-        <v>1006</v>
+        <v>975</v>
       </c>
       <c r="C330" s="7"/>
       <c r="D330" s="6"/>
@@ -25057,7 +25064,7 @@
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
       <c r="C331" s="7" t="s">
-        <v>1007</v>
+        <v>976</v>
       </c>
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
@@ -25123,7 +25130,7 @@
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
       <c r="D334" s="6" t="s">
-        <v>1008</v>
+        <v>977</v>
       </c>
       <c r="E334" s="6" t="s">
         <v>329</v>
@@ -25150,7 +25157,7 @@
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
       <c r="D335" s="6" t="s">
-        <v>1009</v>
+        <v>978</v>
       </c>
       <c r="E335" s="6" t="s">
         <v>329</v>
@@ -25177,7 +25184,7 @@
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
       <c r="D336" s="6" t="s">
-        <v>1010</v>
+        <v>979</v>
       </c>
       <c r="E336" s="6" t="s">
         <v>329</v>
@@ -25204,7 +25211,7 @@
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
       <c r="D337" s="6" t="s">
-        <v>1011</v>
+        <v>980</v>
       </c>
       <c r="E337" s="6" t="s">
         <v>329</v>
@@ -25231,7 +25238,7 @@
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
       <c r="D338" s="6" t="s">
-        <v>1012</v>
+        <v>981</v>
       </c>
       <c r="E338" s="6" t="s">
         <v>329</v>
@@ -25258,7 +25265,7 @@
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
       <c r="D339" s="6" t="s">
-        <v>1013</v>
+        <v>982</v>
       </c>
       <c r="E339" s="6" t="s">
         <v>329</v>
@@ -25285,24 +25292,24 @@
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
       <c r="D340" s="6" t="s">
-        <v>1014</v>
+        <v>983</v>
       </c>
       <c r="E340" s="6"/>
       <c r="F340" s="6" t="s">
-        <v>1015</v>
+        <v>984</v>
       </c>
       <c r="G340" s="6"/>
       <c r="H340" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I340" s="6" t="s">
-        <v>1015</v>
+        <v>984</v>
       </c>
       <c r="J340" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K340" s="6" t="s">
-        <v>1016</v>
+        <v>985</v>
       </c>
     </row>
     <row r="341" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25310,7 +25317,7 @@
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
       <c r="D341" s="6" t="s">
-        <v>1017</v>
+        <v>986</v>
       </c>
       <c r="E341" s="6" t="s">
         <v>329</v>
@@ -25337,7 +25344,7 @@
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
       <c r="D342" s="6" t="s">
-        <v>1018</v>
+        <v>987</v>
       </c>
       <c r="E342" s="6" t="s">
         <v>329</v>
@@ -25362,7 +25369,7 @@
     <row r="343" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="7"/>
       <c r="B343" s="7" t="s">
-        <v>1019</v>
+        <v>988</v>
       </c>
       <c r="C343" s="7"/>
       <c r="D343" s="6"/>
@@ -25378,7 +25385,7 @@
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7" t="s">
-        <v>1020</v>
+        <v>989</v>
       </c>
       <c r="D344" s="6"/>
       <c r="E344" s="6" t="s">
@@ -25435,20 +25442,20 @@
         <v>157</v>
       </c>
       <c r="F346" s="6" t="s">
-        <v>1022</v>
+        <v>991</v>
       </c>
       <c r="G346" s="6"/>
       <c r="H346" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I346" s="6" t="s">
-        <v>1022</v>
+        <v>991</v>
       </c>
       <c r="J346" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K346" s="6" t="s">
-        <v>1023</v>
+        <v>992</v>
       </c>
     </row>
     <row r="347" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25456,26 +25463,26 @@
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
       <c r="D347" s="6" t="s">
-        <v>1024</v>
+        <v>993</v>
       </c>
       <c r="E347" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F347" s="6" t="s">
-        <v>1026</v>
+        <v>995</v>
       </c>
       <c r="G347" s="6"/>
       <c r="H347" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I347" s="6" t="s">
-        <v>1026</v>
+        <v>995</v>
       </c>
       <c r="J347" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K347" s="6" t="s">
-        <v>1027</v>
+        <v>996</v>
       </c>
     </row>
     <row r="348" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25483,26 +25490,26 @@
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="6" t="s">
-        <v>1028</v>
+        <v>997</v>
       </c>
       <c r="E348" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F348" s="6" t="s">
-        <v>1030</v>
+        <v>999</v>
       </c>
       <c r="G348" s="6"/>
       <c r="H348" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I348" s="6" t="s">
-        <v>1030</v>
+        <v>999</v>
       </c>
       <c r="J348" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K348" s="6" t="s">
-        <v>1031</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="349" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25510,26 +25517,26 @@
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
       <c r="D349" s="6" t="s">
-        <v>1032</v>
+        <v>1001</v>
       </c>
       <c r="E349" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F349" s="6" t="s">
-        <v>1034</v>
+        <v>1003</v>
       </c>
       <c r="G349" s="6"/>
       <c r="H349" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I349" s="6" t="s">
-        <v>1034</v>
+        <v>1003</v>
       </c>
       <c r="J349" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K349" s="6" t="s">
-        <v>1035</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="350" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25537,26 +25544,26 @@
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
       <c r="D350" s="6" t="s">
-        <v>1036</v>
+        <v>1005</v>
       </c>
       <c r="E350" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F350" s="6" t="s">
-        <v>1038</v>
+        <v>1007</v>
       </c>
       <c r="G350" s="6"/>
       <c r="H350" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I350" s="6" t="s">
-        <v>1038</v>
+        <v>1007</v>
       </c>
       <c r="J350" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K350" s="6" t="s">
-        <v>1039</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="351" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25564,26 +25571,26 @@
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
       <c r="D351" s="6" t="s">
-        <v>1040</v>
+        <v>1009</v>
       </c>
       <c r="E351" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F351" s="6" t="s">
-        <v>1042</v>
+        <v>1011</v>
       </c>
       <c r="G351" s="6"/>
       <c r="H351" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I351" s="6" t="s">
-        <v>1042</v>
+        <v>1011</v>
       </c>
       <c r="J351" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K351" s="6" t="s">
-        <v>1043</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="352" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25591,26 +25598,26 @@
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
       <c r="D352" s="6" t="s">
-        <v>1044</v>
+        <v>1013</v>
       </c>
       <c r="E352" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F352" s="6" t="s">
-        <v>1046</v>
+        <v>1015</v>
       </c>
       <c r="G352" s="6"/>
       <c r="H352" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I352" s="6" t="s">
-        <v>1046</v>
+        <v>1015</v>
       </c>
       <c r="J352" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K352" s="6" t="s">
-        <v>1047</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="353" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25618,33 +25625,33 @@
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
       <c r="D353" s="6" t="s">
-        <v>1048</v>
+        <v>1017</v>
       </c>
       <c r="E353" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F353" s="6" t="s">
-        <v>1050</v>
+        <v>1019</v>
       </c>
       <c r="G353" s="6"/>
       <c r="H353" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I353" s="6" t="s">
-        <v>1050</v>
+        <v>1019</v>
       </c>
       <c r="J353" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K353" s="6" t="s">
-        <v>1051</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="354" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="7"/>
       <c r="B354" s="7"/>
       <c r="C354" s="7" t="s">
-        <v>1052</v>
+        <v>1021</v>
       </c>
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
@@ -25714,20 +25721,20 @@
         <v>157</v>
       </c>
       <c r="F357" s="6" t="s">
-        <v>1022</v>
+        <v>991</v>
       </c>
       <c r="G357" s="6"/>
       <c r="H357" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I357" s="6" t="s">
-        <v>1022</v>
+        <v>991</v>
       </c>
       <c r="J357" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K357" s="6" t="s">
-        <v>1023</v>
+        <v>992</v>
       </c>
     </row>
     <row r="358" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25735,26 +25742,26 @@
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
       <c r="D358" s="6" t="s">
-        <v>1053</v>
+        <v>1022</v>
       </c>
       <c r="E358" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F358" s="6" t="s">
-        <v>1055</v>
+        <v>1024</v>
       </c>
       <c r="G358" s="6"/>
       <c r="H358" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I358" s="6" t="s">
-        <v>1055</v>
+        <v>1024</v>
       </c>
       <c r="J358" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K358" s="6" t="s">
-        <v>1056</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="359" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25762,26 +25769,26 @@
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
       <c r="D359" s="6" t="s">
-        <v>1057</v>
+        <v>1026</v>
       </c>
       <c r="E359" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F359" s="6" t="s">
-        <v>1059</v>
+        <v>1028</v>
       </c>
       <c r="G359" s="6"/>
       <c r="H359" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I359" s="6" t="s">
-        <v>1059</v>
+        <v>1028</v>
       </c>
       <c r="J359" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K359" s="6" t="s">
-        <v>1060</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="360" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25789,26 +25796,26 @@
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
       <c r="D360" s="6" t="s">
-        <v>1061</v>
+        <v>1030</v>
       </c>
       <c r="E360" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F360" s="6" t="s">
-        <v>1063</v>
+        <v>1032</v>
       </c>
       <c r="G360" s="6"/>
       <c r="H360" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I360" s="6" t="s">
-        <v>1063</v>
+        <v>1032</v>
       </c>
       <c r="J360" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K360" s="6" t="s">
-        <v>1064</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="361" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25816,26 +25823,26 @@
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
       <c r="D361" s="6" t="s">
-        <v>1065</v>
+        <v>1034</v>
       </c>
       <c r="E361" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F361" s="6" t="s">
-        <v>1067</v>
+        <v>1036</v>
       </c>
       <c r="G361" s="6"/>
       <c r="H361" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I361" s="6" t="s">
-        <v>1067</v>
+        <v>1036</v>
       </c>
       <c r="J361" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K361" s="6" t="s">
-        <v>1068</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="362" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25843,26 +25850,26 @@
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
       <c r="D362" s="6" t="s">
-        <v>1069</v>
+        <v>1038</v>
       </c>
       <c r="E362" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F362" s="6" t="s">
-        <v>1071</v>
+        <v>1040</v>
       </c>
       <c r="G362" s="6"/>
       <c r="H362" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I362" s="6" t="s">
-        <v>1071</v>
+        <v>1040</v>
       </c>
       <c r="J362" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K362" s="6" t="s">
-        <v>1072</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="363" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25870,26 +25877,26 @@
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
       <c r="D363" s="6" t="s">
-        <v>1073</v>
+        <v>1042</v>
       </c>
       <c r="E363" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F363" s="6" t="s">
-        <v>1075</v>
+        <v>1044</v>
       </c>
       <c r="G363" s="6"/>
       <c r="H363" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I363" s="6" t="s">
-        <v>1075</v>
+        <v>1044</v>
       </c>
       <c r="J363" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K363" s="6" t="s">
-        <v>1076</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="364" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25897,26 +25904,26 @@
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
       <c r="D364" s="6" t="s">
-        <v>1077</v>
+        <v>1046</v>
       </c>
       <c r="E364" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F364" s="6" t="s">
-        <v>1079</v>
+        <v>1048</v>
       </c>
       <c r="G364" s="6"/>
       <c r="H364" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I364" s="6" t="s">
-        <v>1079</v>
+        <v>1048</v>
       </c>
       <c r="J364" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K364" s="6" t="s">
-        <v>1080</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="365" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25924,26 +25931,26 @@
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
       <c r="D365" s="6" t="s">
-        <v>1081</v>
+        <v>1050</v>
       </c>
       <c r="E365" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F365" s="6" t="s">
-        <v>1083</v>
+        <v>1052</v>
       </c>
       <c r="G365" s="6"/>
       <c r="H365" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I365" s="6" t="s">
-        <v>1083</v>
+        <v>1052</v>
       </c>
       <c r="J365" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K365" s="6" t="s">
-        <v>1084</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="366" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25951,26 +25958,26 @@
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
       <c r="D366" s="6" t="s">
-        <v>1085</v>
+        <v>1054</v>
       </c>
       <c r="E366" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F366" s="6" t="s">
-        <v>1087</v>
+        <v>1056</v>
       </c>
       <c r="G366" s="6"/>
       <c r="H366" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I366" s="6" t="s">
-        <v>1087</v>
+        <v>1056</v>
       </c>
       <c r="J366" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K366" s="6" t="s">
-        <v>1088</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="367" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -25978,26 +25985,26 @@
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
       <c r="D367" s="6" t="s">
-        <v>1089</v>
+        <v>1058</v>
       </c>
       <c r="E367" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F367" s="6" t="s">
-        <v>1091</v>
+        <v>1060</v>
       </c>
       <c r="G367" s="6"/>
       <c r="H367" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I367" s="6" t="s">
-        <v>1091</v>
+        <v>1060</v>
       </c>
       <c r="J367" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K367" s="6" t="s">
-        <v>1092</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="368" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -26005,33 +26012,33 @@
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
       <c r="D368" s="6" t="s">
-        <v>1093</v>
+        <v>1062</v>
       </c>
       <c r="E368" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F368" s="6" t="s">
-        <v>1095</v>
+        <v>1064</v>
       </c>
       <c r="G368" s="6"/>
       <c r="H368" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I368" s="6" t="s">
-        <v>1095</v>
+        <v>1064</v>
       </c>
       <c r="J368" s="6" t="s">
         <v>166</v>
       </c>
       <c r="K368" s="6" t="s">
-        <v>1096</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="369" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="7"/>
       <c r="B369" s="7"/>
       <c r="C369" s="7" t="s">
-        <v>1097</v>
+        <v>1066</v>
       </c>
       <c r="D369" s="6"/>
       <c r="E369" s="6"/>
@@ -26101,20 +26108,20 @@
         <v>157</v>
       </c>
       <c r="F372" s="6" t="s">
-        <v>1099</v>
+        <v>1068</v>
       </c>
       <c r="G372" s="6"/>
       <c r="H372" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I372" s="6" t="s">
-        <v>1099</v>
+        <v>1068</v>
       </c>
       <c r="J372" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K372" s="6" t="s">
-        <v>1100</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="373" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -26122,26 +26129,26 @@
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
       <c r="D373" s="6" t="s">
-        <v>1101</v>
+        <v>1070</v>
       </c>
       <c r="E373" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F373" s="6" t="s">
-        <v>1103</v>
+        <v>1072</v>
       </c>
       <c r="G373" s="6"/>
       <c r="H373" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I373" s="6" t="s">
-        <v>1103</v>
+        <v>1072</v>
       </c>
       <c r="J373" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K373" s="6" t="s">
-        <v>1104</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="374" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -26149,26 +26156,26 @@
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
       <c r="D374" s="6" t="s">
-        <v>1105</v>
+        <v>1074</v>
       </c>
       <c r="E374" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F374" s="6" t="s">
-        <v>1107</v>
+        <v>1076</v>
       </c>
       <c r="G374" s="6"/>
       <c r="H374" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I374" s="6" t="s">
-        <v>1107</v>
+        <v>1076</v>
       </c>
       <c r="J374" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K374" s="6" t="s">
-        <v>1108</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="375" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -26176,26 +26183,26 @@
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
       <c r="D375" s="6" t="s">
-        <v>1109</v>
+        <v>1078</v>
       </c>
       <c r="E375" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F375" s="6" t="s">
-        <v>1111</v>
+        <v>1080</v>
       </c>
       <c r="G375" s="6"/>
       <c r="H375" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I375" s="6" t="s">
-        <v>1111</v>
+        <v>1080</v>
       </c>
       <c r="J375" s="6" t="s">
         <v>255</v>
       </c>
       <c r="K375" s="6" t="s">
-        <v>1112</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="376" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -26203,26 +26210,26 @@
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
       <c r="D376" s="6" t="s">
-        <v>1113</v>
+        <v>1082</v>
       </c>
       <c r="E376" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F376" s="6" t="s">
-        <v>1115</v>
+        <v>1084</v>
       </c>
       <c r="G376" s="6"/>
       <c r="H376" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I376" s="6" t="s">
-        <v>1115</v>
+        <v>1084</v>
       </c>
       <c r="J376" s="6" t="s">
         <v>276</v>
       </c>
       <c r="K376" s="6" t="s">
-        <v>1116</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="377" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -26230,26 +26237,26 @@
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
       <c r="D377" s="6" t="s">
-        <v>1117</v>
+        <v>1086</v>
       </c>
       <c r="E377" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F377" s="6" t="s">
-        <v>1119</v>
+        <v>1088</v>
       </c>
       <c r="G377" s="6"/>
       <c r="H377" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I377" s="6" t="s">
-        <v>1119</v>
+        <v>1088</v>
       </c>
       <c r="J377" s="6" t="s">
         <v>276</v>
       </c>
       <c r="K377" s="6" t="s">
-        <v>1120</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="378" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -26257,33 +26264,33 @@
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
       <c r="D378" s="6" t="s">
-        <v>1121</v>
+        <v>1090</v>
       </c>
       <c r="E378" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F378" s="6" t="s">
-        <v>1123</v>
+        <v>1092</v>
       </c>
       <c r="G378" s="6"/>
       <c r="H378" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I378" s="6" t="s">
-        <v>1123</v>
+        <v>1092</v>
       </c>
       <c r="J378" s="6" t="s">
         <v>276</v>
       </c>
       <c r="K378" s="6" t="s">
-        <v>1124</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="379" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="7"/>
       <c r="B379" s="7"/>
       <c r="C379" s="7" t="s">
-        <v>1125</v>
+        <v>1094</v>
       </c>
       <c r="D379" s="6"/>
       <c r="E379" s="6"/>
@@ -26349,26 +26356,26 @@
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
       <c r="D382" s="6" t="s">
-        <v>1126</v>
+        <v>1095</v>
       </c>
       <c r="E382" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F382" s="6" t="s">
-        <v>1128</v>
+        <v>1097</v>
       </c>
       <c r="G382" s="6"/>
       <c r="H382" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I382" s="6" t="s">
-        <v>1128</v>
+        <v>1097</v>
       </c>
       <c r="J382" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K382" s="6" t="s">
-        <v>1129</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="383" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -26376,26 +26383,26 @@
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
       <c r="D383" s="6" t="s">
-        <v>1130</v>
+        <v>1099</v>
       </c>
       <c r="E383" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F383" s="6" t="s">
-        <v>1132</v>
+        <v>1101</v>
       </c>
       <c r="G383" s="6"/>
       <c r="H383" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I383" s="6" t="s">
-        <v>1132</v>
+        <v>1101</v>
       </c>
       <c r="J383" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K383" s="6" t="s">
-        <v>1133</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="384" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -26403,26 +26410,26 @@
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
       <c r="D384" s="6" t="s">
-        <v>1134</v>
+        <v>1103</v>
       </c>
       <c r="E384" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F384" s="6" t="s">
-        <v>1136</v>
+        <v>1105</v>
       </c>
       <c r="G384" s="6"/>
       <c r="H384" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I384" s="6" t="s">
-        <v>1136</v>
+        <v>1105</v>
       </c>
       <c r="J384" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K384" s="6" t="s">
-        <v>1137</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="385" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -26430,26 +26437,26 @@
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
       <c r="D385" s="6" t="s">
-        <v>1138</v>
+        <v>1107</v>
       </c>
       <c r="E385" s="6" t="s">
         <v>157</v>
       </c>
       <c r="F385" s="6" t="s">
-        <v>1140</v>
+        <v>1109</v>
       </c>
       <c r="G385" s="6"/>
       <c r="H385" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I385" s="6" t="s">
-        <v>1140</v>
+        <v>1109</v>
       </c>
       <c r="J385" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K385" s="6" t="s">
-        <v>1141</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="386" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -26457,24 +26464,24 @@
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
       <c r="D386" s="6" t="s">
-        <v>1142</v>
+        <v>1111</v>
       </c>
       <c r="E386" s="6"/>
       <c r="F386" s="6" t="s">
-        <v>1144</v>
+        <v>1113</v>
       </c>
       <c r="G386" s="6"/>
       <c r="H386" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I386" s="6" t="s">
-        <v>1144</v>
+        <v>1113</v>
       </c>
       <c r="J386" s="6" t="s">
         <v>303</v>
       </c>
       <c r="K386" s="6" t="s">
-        <v>1145</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="387" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
